--- a/pred_ohlcv/54_21/2020-01-12 WOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 WOM ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>-274595.9411058103</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-273573.1739058103</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-273573.1739058103</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-275263.1464058103</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-284816.7095058103</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-450412.6889926833</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-445273.5893926833</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-445273.5893926833</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-444338.5782873128</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-419479.9289873128</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-413933.1261873128</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-414928.3462873128</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-411464.1159873128</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-516145.2561873128</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-516045.2561873128</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-509305.2241873128</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-505203.4544873128</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-505193.4544873128</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-502954.9390467641</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-502954.9390467641</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-536256.5398467641</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-499140.5017467641</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-502328.7568467641</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-502110.7568467641</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-506741.3413467641</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-12 WOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 WOM ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>-268376.2321058103</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-274595.9411058103</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-275037.6533058103</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-273573.1739058103</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-273573.1739058103</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-275263.1464058103</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-284816.7095058103</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-289061.7801058103</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-275100.2075926833</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-301176.6112926833</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-450412.6889926833</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-445273.5893926833</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-445273.5893926833</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-413933.1261873128</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-414928.3462873128</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-411464.1159873128</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-516045.2561873128</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-514511.6831873128</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-514511.6831873128</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-509305.2241873128</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-505203.4544873128</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-505193.4544873128</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-499913.3673467641</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-502954.9390467641</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-502954.9390467641</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-536256.5398467641</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-499140.5017467641</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-502328.7568467641</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-502110.7568467641</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-506741.3413467641</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
